--- a/data/MetalliCan/production_data_available.xlsx
+++ b/data/MetalliCan/production_data_available.xlsx
@@ -892,7 +892,7 @@
     <t>['Ore processed', 'Contained metal in concentrate', 'Concentrate']</t>
   </si>
   <si>
-    <t>['Concentrate', 'Contained metal in concentrate', 'Ore processed']</t>
+    <t>['Contained metal in concentrate', 'Ore processed', 'Concentrate']</t>
   </si>
   <si>
     <t>['EAF production', 'Nominal crude steel capacity']</t>
